--- a/TOT数据1.xlsx
+++ b/TOT数据1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -992,8 +992,8 @@
   <sheetPr/>
   <dimension ref="A2:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1717,8 +1717,8 @@
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K15" sqref="H5:K15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/TOT数据1.xlsx
+++ b/TOT数据1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -990,13 +990,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C60"/>
+  <dimension ref="A2:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="9.375"/>
   </cols>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>150</v>
       </c>
@@ -1020,8 +1020,12 @@
         <f>B3*1000000000</f>
         <v>397.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <f>C3*10</f>
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>200</v>
       </c>
@@ -1032,8 +1036,12 @@
         <f>B4*1000000000</f>
         <v>690.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <f t="shared" ref="D4:D35" si="0">C4*10</f>
+        <v>6901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>250</v>
       </c>
@@ -1041,11 +1049,15 @@
         <v>8.704e-7</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C36" si="0">B5*1000000000</f>
+        <f t="shared" ref="C5:C36" si="1">B5*1000000000</f>
         <v>870.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>300</v>
       </c>
@@ -1053,11 +1065,15 @@
         <v>1.009e-6</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1009</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>10090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>350</v>
       </c>
@@ -1065,11 +1081,15 @@
         <v>1.127e-6</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1127</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>11270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>400</v>
       </c>
@@ -1077,11 +1097,15 @@
         <v>1.234e-6</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1234</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>12340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>450</v>
       </c>
@@ -1089,11 +1113,15 @@
         <v>1.332e-6</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1332</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>13320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>500</v>
       </c>
@@ -1101,11 +1129,15 @@
         <v>1.427e-6</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1427</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>14270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>550</v>
       </c>
@@ -1113,11 +1145,15 @@
         <v>1.518e-6</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1518</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>15180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>600</v>
       </c>
@@ -1125,11 +1161,15 @@
         <v>1.607e-6</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1607</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>16070</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>650</v>
       </c>
@@ -1137,11 +1177,15 @@
         <v>1.695e-6</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1695</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>16950</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>700</v>
       </c>
@@ -1149,11 +1193,15 @@
         <v>1.782e-6</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1782</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>17820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>750</v>
       </c>
@@ -1161,11 +1209,15 @@
         <v>1.868e-6</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1868</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>18680</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>800</v>
       </c>
@@ -1173,11 +1225,15 @@
         <v>1.954e-6</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1954</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>19540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>850</v>
       </c>
@@ -1185,11 +1241,15 @@
         <v>2.039e-6</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2039</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>20390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>900</v>
       </c>
@@ -1197,11 +1257,15 @@
         <v>2.123e-6</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2123</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>21230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>950</v>
       </c>
@@ -1209,11 +1273,15 @@
         <v>2.207e-6</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2207</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>22070</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>1000</v>
       </c>
@@ -1221,11 +1289,15 @@
         <v>2.291e-6</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2291</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>22910</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>1050</v>
       </c>
@@ -1233,11 +1305,15 @@
         <v>2.374e-6</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2374</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>23740</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>1100</v>
       </c>
@@ -1245,11 +1321,15 @@
         <v>2.457e-6</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2457</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>24570</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>1150</v>
       </c>
@@ -1257,11 +1337,15 @@
         <v>2.539e-6</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2539</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>25390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>1200</v>
       </c>
@@ -1269,11 +1353,15 @@
         <v>2.622e-6</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2622</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>26220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>1250</v>
       </c>
@@ -1281,11 +1369,15 @@
         <v>2.704e-6</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2704</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>27040</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>1300</v>
       </c>
@@ -1293,11 +1385,15 @@
         <v>2.786e-6</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2786</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>27860</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>1350</v>
       </c>
@@ -1305,11 +1401,15 @@
         <v>2.868e-6</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2868</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>28680</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>1400</v>
       </c>
@@ -1317,11 +1417,15 @@
         <v>2.95e-6</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2950</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>29500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>1450</v>
       </c>
@@ -1329,11 +1433,15 @@
         <v>3.031e-6</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3031</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>30310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>1500</v>
       </c>
@@ -1341,11 +1449,15 @@
         <v>3.112e-6</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3112</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>31120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>1550</v>
       </c>
@@ -1353,11 +1465,15 @@
         <v>3.194e-6</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3194</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>31940</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>1600</v>
       </c>
@@ -1365,11 +1481,15 @@
         <v>3.275e-6</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3275</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>32750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>1650</v>
       </c>
@@ -1377,11 +1497,15 @@
         <v>3.356e-6</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3356</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>33560</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>1700</v>
       </c>
@@ -1389,11 +1513,15 @@
         <v>3.437e-6</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3437</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>34370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>1750</v>
       </c>
@@ -1401,11 +1529,15 @@
         <v>3.518e-6</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3518</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>35180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>1800</v>
       </c>
@@ -1413,11 +1545,15 @@
         <v>3.598e-6</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3598</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <f t="shared" ref="D36:D60" si="2">C36*10</f>
+        <v>35980</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>1850</v>
       </c>
@@ -1425,11 +1561,15 @@
         <v>3.679e-6</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:C60" si="1">B37*1000000000</f>
+        <f t="shared" ref="C37:C60" si="3">B37*1000000000</f>
         <v>3679</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>36790</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>1900</v>
       </c>
@@ -1437,11 +1577,15 @@
         <v>3.76e-6</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3760</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>37600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>1950</v>
       </c>
@@ -1449,11 +1593,15 @@
         <v>3.84e-6</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3840</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>2000</v>
       </c>
@@ -1461,11 +1609,15 @@
         <v>3.921e-6</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3921</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>39210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>2050</v>
       </c>
@@ -1473,11 +1625,15 @@
         <v>4.001e-6</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4001</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>40010</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>2100</v>
       </c>
@@ -1485,11 +1641,15 @@
         <v>4.082e-6</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4082</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>40820</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>2150</v>
       </c>
@@ -1497,11 +1657,15 @@
         <v>4.162e-6</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4162</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>41620</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>2200</v>
       </c>
@@ -1509,11 +1673,15 @@
         <v>4.242e-6</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4242</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>42420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>2250</v>
       </c>
@@ -1521,11 +1689,15 @@
         <v>4.323e-6</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4323</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>43230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>2300</v>
       </c>
@@ -1533,11 +1705,15 @@
         <v>4.403e-6</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4403</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>2350</v>
       </c>
@@ -1545,11 +1721,15 @@
         <v>4.483e-6</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4483</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>2400</v>
       </c>
@@ -1557,11 +1737,15 @@
         <v>4.563e-6</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4563</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>2450</v>
       </c>
@@ -1569,11 +1753,15 @@
         <v>4.643e-6</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4643</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>46430</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>2500</v>
       </c>
@@ -1581,11 +1769,15 @@
         <v>4.723e-6</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4723</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>47230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>2550</v>
       </c>
@@ -1593,11 +1785,15 @@
         <v>4.803e-6</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4803</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>48030</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>2600</v>
       </c>
@@ -1605,11 +1801,15 @@
         <v>4.884e-6</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4884</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>48840</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>2650</v>
       </c>
@@ -1617,11 +1817,15 @@
         <v>4.964e-6</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4964</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>49640</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>2700</v>
       </c>
@@ -1629,11 +1833,15 @@
         <v>5.044e-6</v>
       </c>
       <c r="C54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5044</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>50440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>2750</v>
       </c>
@@ -1641,11 +1849,15 @@
         <v>5.124e-6</v>
       </c>
       <c r="C55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5124</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>51240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>2800</v>
       </c>
@@ -1653,11 +1865,15 @@
         <v>5.204e-6</v>
       </c>
       <c r="C56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5204</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>52040</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>2850</v>
       </c>
@@ -1665,11 +1881,15 @@
         <v>5.283e-6</v>
       </c>
       <c r="C57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5283</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>52830</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>2900</v>
       </c>
@@ -1677,11 +1897,15 @@
         <v>5.363e-6</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5363</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>53630</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>2950</v>
       </c>
@@ -1689,11 +1913,15 @@
         <v>5.443e-6</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5443</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>54430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>3000</v>
       </c>
@@ -1701,8 +1929,12 @@
         <v>5.523e-6</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5523</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>55230</v>
       </c>
     </row>
   </sheetData>
@@ -1717,7 +1949,7 @@
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="F1" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
